--- a/flower_design.xlsx
+++ b/flower_design.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -35,8 +35,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -57,12 +57,6 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
-        <bgColor rgb="000000FF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -76,12 +70,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,83 +469,83 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
       <c r="L1" s="2" t="n"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="3" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
       <c r="L2" s="2" t="n"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
       <c r="L3" s="2" t="n"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="3" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n"/>
@@ -560,55 +553,55 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/flower_design.xlsx
+++ b/flower_design.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -53,8 +53,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,11 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +532,7 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="3" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="F5" s="4" t="n"/>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
@@ -553,7 +560,7 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
-      <c r="F7" s="4" t="n"/>
+      <c r="F7" s="5" t="n"/>
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
@@ -565,11 +572,11 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
-      <c r="D8" s="4" t="n"/>
+      <c r="D8" s="5" t="n"/>
       <c r="E8" s="1" t="n"/>
-      <c r="F8" s="4" t="n"/>
+      <c r="F8" s="5" t="n"/>
       <c r="G8" s="1" t="n"/>
-      <c r="H8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
@@ -580,9 +587,9 @@
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
@@ -595,7 +602,7 @@
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
-      <c r="F10" s="4" t="n"/>
+      <c r="F10" s="5" t="n"/>
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
